--- a/Wayfinder Master Spreadsheet.xlsx
+++ b/Wayfinder Master Spreadsheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scottpt.AD\Desktop\Wayfinder Spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Parker\Wayfinder Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13350" windowHeight="7800" firstSheet="19" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13350" windowHeight="7800" firstSheet="14" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="F1 Zone Info" sheetId="1" r:id="rId1"/>
@@ -5296,8 +5296,8 @@
   </sheetPr>
   <dimension ref="A1:N163"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="F142" workbookViewId="0">
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6960,16 +6960,16 @@
         <v>671</v>
       </c>
       <c r="C74" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D74" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F74" t="s">
-        <v>235</v>
+        <v>704</v>
       </c>
       <c r="G74" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="I74" t="s">
         <v>71</v>
@@ -8810,16 +8810,16 @@
         <v>484</v>
       </c>
       <c r="C163" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D163" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="F163" t="s">
-        <v>704</v>
+        <v>235</v>
       </c>
       <c r="G163" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="I163" t="s">
         <v>71</v>
@@ -11601,7 +11601,7 @@
   </sheetPr>
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
